--- a/Documentation/Feature Backlog.xlsx
+++ b/Documentation/Feature Backlog.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amurella/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michaela\Documents\CSE 360\PopItUp\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -442,7 +442,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -499,113 +499,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -616,48 +628,13 @@
   <dxfs count="26">
     <dxf>
       <font>
-        <color theme="4" tint="-0.499984740745262"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Perpetua"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -695,6 +672,64 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Perpetua"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Perpetua"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Perpetua"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -705,7 +740,7 @@
         <name val="Perpetua"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -716,26 +751,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Perpetua"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Perpetua"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -846,6 +861,35 @@
     </dxf>
     <dxf>
       <font>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Perpetua"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Perpetua"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -943,80 +987,48 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Perpetua"/>
-        <scheme val="minor"/>
+        <color theme="4" tint="-0.499984740745262"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
         <bottom style="thin">
-          <color theme="0"/>
+          <color theme="4" tint="-0.499984740745262"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Perpetua"/>
-        <scheme val="minor"/>
+        <color theme="4" tint="-0.499984740745262"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Perpetua"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
         <bottom style="thin">
-          <color theme="0"/>
+          <color theme="4" tint="-0.499984740745262"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Perpetua"/>
-        <scheme val="minor"/>
+        <color theme="4" tint="-0.499984740745262"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1029,6 +1041,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1037,68 +1052,55 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Project 1 To Do List"/>
       <sheetName val="Settings &amp; Calculations"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="18">
-          <cell r="C18" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19" t="str">
-            <v/>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B8:G10" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B8:G10" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="B8:G10"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="% done" dataDxfId="25"/>
-    <tableColumn id="2" name="Type of User" dataDxfId="24"/>
-    <tableColumn id="3" name="Sprint Release Data" dataDxfId="23"/>
-    <tableColumn id="5" name="Priority" dataDxfId="22"/>
-    <tableColumn id="6" name="Hours Spent" dataDxfId="3"/>
-    <tableColumn id="4" name="Description" dataDxfId="7"/>
+    <tableColumn id="1" name="% done" dataDxfId="20"/>
+    <tableColumn id="2" name="Type of User" dataDxfId="19"/>
+    <tableColumn id="3" name="Sprint Release Data" dataDxfId="18"/>
+    <tableColumn id="5" name="Priority" dataDxfId="17"/>
+    <tableColumn id="6" name="Hours Spent" dataDxfId="16"/>
+    <tableColumn id="4" name="Description" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B30:G40" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B30:G40" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="B30:G40"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="% done" dataDxfId="19"/>
-    <tableColumn id="2" name="Type of User" dataDxfId="18"/>
-    <tableColumn id="3" name="Sprint Release Date" dataDxfId="17"/>
-    <tableColumn id="5" name="Priority" dataDxfId="16"/>
+    <tableColumn id="1" name="% done" dataDxfId="12"/>
+    <tableColumn id="2" name="Type of User" dataDxfId="11"/>
+    <tableColumn id="3" name="Sprint Release Date" dataDxfId="10"/>
+    <tableColumn id="5" name="Priority" dataDxfId="9"/>
     <tableColumn id="6" name="Hours Spent"/>
-    <tableColumn id="4" name="Description" dataDxfId="6"/>
+    <tableColumn id="4" name="Description" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B14:G26" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B14:G26" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B14:G26"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="% done" dataDxfId="13"/>
-    <tableColumn id="2" name="Type of User" dataDxfId="12"/>
-    <tableColumn id="3" name="Sprint Release Date" dataDxfId="11"/>
-    <tableColumn id="5" name="Prioirity" dataDxfId="10"/>
-    <tableColumn id="6" name="Hours Spent" dataDxfId="4"/>
-    <tableColumn id="4" name="Description" dataDxfId="5"/>
+    <tableColumn id="1" name="% done" dataDxfId="5"/>
+    <tableColumn id="2" name="Type of User" dataDxfId="4"/>
+    <tableColumn id="3" name="Sprint Release Date" dataDxfId="3"/>
+    <tableColumn id="5" name="Prioirity" dataDxfId="2"/>
+    <tableColumn id="6" name="Hours Spent" dataDxfId="1"/>
+    <tableColumn id="4" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1450,11 +1452,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="29.3984375" customWidth="1"/>
@@ -1466,62 +1468,62 @@
     <col min="8" max="8" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="24" t="s">
+    <row r="1" spans="2:7" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B2" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="2:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="2:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="2:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="2:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B8" s="18" t="s">
         <v>2</v>
       </c>
@@ -1541,70 +1543,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B9" s="12">
-        <v>1</v>
-      </c>
-      <c r="C9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="29">
         <v>42461</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="12">
         <v>1</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="32">
         <v>42461</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" spans="2:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="B13" s="40" t="s">
+    <row r="11" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="2:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.4">
+      <c r="B13" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="24"/>
+    </row>
+    <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="18" t="s">
         <v>2</v>
       </c>
@@ -1624,163 +1626,163 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="12">
-        <v>0</v>
-      </c>
-      <c r="C15" s="41" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="29">
         <v>42475</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16" s="37" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="29">
         <v>42475</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="46" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="13">
-        <v>0</v>
-      </c>
-      <c r="C17" s="37" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="29">
         <v>42475</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="44" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B18" s="13">
-        <v>0</v>
-      </c>
-      <c r="C18" s="42" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="36">
         <v>42475</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B19" s="21">
-        <v>0</v>
-      </c>
-      <c r="C19" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="29">
         <v>42475</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="22">
-        <v>0</v>
-      </c>
-      <c r="C20" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="40">
         <v>42475</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="57">
-        <v>0</v>
-      </c>
-      <c r="C21" s="44" t="s">
+    <row r="21" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="49">
+        <v>1</v>
+      </c>
+      <c r="C21" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="38">
         <v>42475</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="22">
-        <v>0</v>
-      </c>
-      <c r="C22" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="40">
         <v>42475</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="47" t="s">
         <v>29</v>
       </c>
       <c r="H22"/>
@@ -1794,110 +1796,110 @@
       <c r="P22"/>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B23" s="13">
-        <v>0</v>
-      </c>
-      <c r="C23" s="37" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="32">
         <v>42489</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="44" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="13">
-        <v>0</v>
-      </c>
-      <c r="C24" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="32">
         <v>42489</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="54" t="s">
+      <c r="G24" s="46" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B25" s="13">
-        <v>0</v>
-      </c>
-      <c r="C25" s="37" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="32">
         <v>42489</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="13">
-        <v>0</v>
-      </c>
-      <c r="C26" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="42">
         <v>42489</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-    </row>
-    <row r="28" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-    </row>
-    <row r="29" spans="2:17" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="B29" s="40" t="s">
+    <row r="27" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="2:17" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.4">
+      <c r="B29" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="26"/>
-    </row>
-    <row r="30" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="18" t="s">
         <v>2</v>
       </c>
@@ -1917,241 +1919,241 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B31" s="12">
-        <v>0</v>
-      </c>
-      <c r="C31" s="41" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="32">
         <v>42489</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="51" t="s">
+      <c r="G31" s="44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B32" s="13">
-        <v>0</v>
-      </c>
-      <c r="C32" s="42" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="32">
         <v>42489</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="13">
         <v>0</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="32">
         <v>42489</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="51" t="s">
+      <c r="G33" s="44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B34" s="13">
         <v>0</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="49">
+      <c r="D34" s="42">
         <v>42489</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="49" t="s">
+      <c r="F34" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="54" t="s">
+      <c r="G34" s="46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B35" s="13">
-        <v>0</v>
-      </c>
-      <c r="C35" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="32">
         <v>42475</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="51" t="s">
+      <c r="G35" s="44" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B36" s="23">
-        <v>0</v>
-      </c>
-      <c r="C36" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="43">
         <v>42475</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="56" t="s">
+      <c r="G36" s="48" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:7" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.25">
-      <c r="B37" s="23">
-        <v>0</v>
-      </c>
-      <c r="C37" s="48" t="s">
+    <row r="37" spans="2:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="60">
+        <v>1</v>
+      </c>
+      <c r="C37" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="49">
+      <c r="D37" s="62">
         <v>42475</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="G37" s="53" t="s">
+      <c r="G37" s="63" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B38" s="22">
-        <v>0</v>
-      </c>
-      <c r="C38" s="46" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="40">
         <v>42489</v>
       </c>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="59" t="s">
+      <c r="F38" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G38" s="55" t="s">
+      <c r="G38" s="47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B39" s="21">
         <v>0</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="38">
         <v>42489</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="58" t="s">
+      <c r="F39" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B40" s="22">
-        <v>0</v>
-      </c>
-      <c r="C40" s="46" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="C40" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="40">
         <v>42489</v>
       </c>
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="59" t="s">
+      <c r="F40" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G40" s="55" t="s">
+      <c r="G40" s="47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-    </row>
-    <row r="42" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+    </row>
+    <row r="42" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="12"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="15"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="13"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="16"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="13"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
@@ -2159,7 +2161,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="13"/>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
@@ -2167,7 +2169,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="13"/>
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
@@ -2175,7 +2177,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="13"/>
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
@@ -2183,7 +2185,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="14"/>
       <c r="C52" s="8"/>
       <c r="D52" s="9"/>
@@ -2191,17 +2193,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F53" s="10"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G56" s="1"/>
     </row>
   </sheetData>
@@ -2233,17 +2235,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9 G15:G26 G32:G40">
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="25" priority="15">
       <formula>($E9&gt;=valHStart)*($E9&lt;=valHEnd)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="1" priority="14">
+    <cfRule type="expression" dxfId="24" priority="14">
       <formula>($E31&gt;=valHStart)*($E31&lt;=valHEnd)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>($E10&gt;=valHStart)*($E10&lt;=valHEnd)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3326,15 +3328,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
@@ -3472,6 +3465,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4E21023-073B-46A7-ADFA-0AF7DA27A0BA}">
   <ds:schemaRefs>
@@ -3491,19 +3493,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26EF70A8-1114-42C7-8572-E213FBDDCB5F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E4FFA35-9766-458E-8487-16CDDCDF5D13}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26EF70A8-1114-42C7-8572-E213FBDDCB5F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>